--- a/Onderzoek/Perfect Maze/Experiments/results-graphs.xlsx
+++ b/Onderzoek/Perfect Maze/Experiments/results-graphs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -109,6 +109,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1FA1C5"/>
+      <color rgb="FF1D4378"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,7 +355,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -358,11 +363,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2100041184"/>
-        <c:axId val="-2108332784"/>
+        <c:axId val="2144076912"/>
+        <c:axId val="2146801040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100041184"/>
+        <c:axId val="2144076912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108332784"/>
+        <c:crossAx val="2146801040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -480,7 +485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108332784"/>
+        <c:axId val="2146801040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100041184"/>
+        <c:crossAx val="2144076912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -715,7 +720,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0877769639205403"/>
+          <c:y val="0.173470942402728"/>
+          <c:w val="0.907655015693965"/>
+          <c:h val="0.691925591834092"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -874,11 +889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2085551504"/>
-        <c:axId val="-2088454432"/>
+        <c:axId val="2144102832"/>
+        <c:axId val="2144108656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085551504"/>
+        <c:axId val="2144102832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088454432"/>
+        <c:crossAx val="2144108656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -991,7 +1006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088454432"/>
+        <c:axId val="2144108656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085551504"/>
+        <c:crossAx val="2144102832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1296,11 +1311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2088535376"/>
-        <c:axId val="-2083713856"/>
+        <c:axId val="2144148304"/>
+        <c:axId val="2144154208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088535376"/>
+        <c:axId val="2144148304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083713856"/>
+        <c:crossAx val="2144154208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1414,7 +1429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083713856"/>
+        <c:axId val="2144154208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088535376"/>
+        <c:crossAx val="2144148304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1732,11 +1747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2109911696"/>
-        <c:axId val="-2110239552"/>
+        <c:axId val="2146930064"/>
+        <c:axId val="2146935968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109911696"/>
+        <c:axId val="2146930064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110239552"/>
+        <c:crossAx val="2146935968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +1865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110239552"/>
+        <c:axId val="2146935968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109911696"/>
+        <c:crossAx val="2146930064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1984,6 +1999,639 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="73025" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="1D4378"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2122499648"/>
+        <c:axId val="-2082901008"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="73025" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2070289904"/>
+        <c:axId val="-2086724576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2122499648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2082901008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2082901008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="Roboto" charset="0"/>
+                <a:ea typeface="Roboto" charset="0"/>
+                <a:cs typeface="Roboto" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2122499648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2086724576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="Roboto" charset="0"/>
+                <a:ea typeface="Roboto" charset="0"/>
+                <a:cs typeface="Roboto" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070289904"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3.0"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2070289904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086724576"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2132,6 +2780,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3681,6 +4369,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4318,6 +5522,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>341194</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>691867</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>113731</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4584,15 +5818,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="67" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="67" workbookViewId="0">
+      <selection activeCell="AC68" sqref="AC68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4603,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4613,8 +5847,11 @@
       <c r="C2">
         <v>16</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4624,8 +5861,11 @@
       <c r="C3">
         <v>27</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4635,8 +5875,11 @@
       <c r="C4">
         <v>52</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4646,8 +5889,11 @@
       <c r="C5">
         <v>66</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4657,8 +5903,11 @@
       <c r="C6">
         <v>27</v>
       </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4668,8 +5917,11 @@
       <c r="C7">
         <v>320</v>
       </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4679,8 +5931,11 @@
       <c r="C8">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4690,8 +5945,11 @@
       <c r="C9">
         <v>33</v>
       </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4701,8 +5959,11 @@
       <c r="C10">
         <v>15</v>
       </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4712,8 +5973,11 @@
       <c r="C11">
         <v>12</v>
       </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4723,8 +5987,11 @@
       <c r="C12">
         <v>69</v>
       </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4734,8 +6001,11 @@
       <c r="C13">
         <v>119</v>
       </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4745,8 +6015,11 @@
       <c r="C14">
         <v>19</v>
       </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4756,8 +6029,11 @@
       <c r="C15">
         <v>44</v>
       </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4767,8 +6043,11 @@
       <c r="C16">
         <v>7</v>
       </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4778,8 +6057,11 @@
       <c r="C17">
         <v>16</v>
       </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4789,8 +6071,11 @@
       <c r="C18">
         <v>73</v>
       </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4800,8 +6085,11 @@
       <c r="C19">
         <v>143</v>
       </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4811,8 +6099,11 @@
       <c r="C20">
         <v>100</v>
       </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4822,8 +6113,11 @@
       <c r="C21">
         <v>143</v>
       </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4833,8 +6127,11 @@
       <c r="C22">
         <v>94</v>
       </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -4844,8 +6141,11 @@
       <c r="C23">
         <v>187</v>
       </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4855,8 +6155,11 @@
       <c r="C24">
         <v>83</v>
       </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4866,8 +6169,11 @@
       <c r="C25">
         <v>171</v>
       </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4877,8 +6183,11 @@
       <c r="C26">
         <v>22</v>
       </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -4888,8 +6197,11 @@
       <c r="C27">
         <v>162</v>
       </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4899,8 +6211,11 @@
       <c r="C28">
         <v>12</v>
       </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4910,8 +6225,11 @@
       <c r="C29">
         <v>80</v>
       </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4921,8 +6239,11 @@
       <c r="C30">
         <v>83</v>
       </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -4932,8 +6253,11 @@
       <c r="C31">
         <v>67</v>
       </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4943,8 +6267,11 @@
       <c r="C32">
         <v>28</v>
       </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -4954,8 +6281,11 @@
       <c r="C33">
         <v>172</v>
       </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -4965,8 +6295,11 @@
       <c r="C34">
         <v>43</v>
       </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4976,8 +6309,11 @@
       <c r="C35">
         <v>37</v>
       </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -4987,8 +6323,11 @@
       <c r="C36">
         <v>151</v>
       </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4998,8 +6337,11 @@
       <c r="C37">
         <v>52</v>
       </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -5009,8 +6351,11 @@
       <c r="C38">
         <v>4</v>
       </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -5020,8 +6365,11 @@
       <c r="C39">
         <v>59</v>
       </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -5031,8 +6379,11 @@
       <c r="C40">
         <v>30</v>
       </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5042,8 +6393,11 @@
       <c r="C41">
         <v>27</v>
       </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -5054,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>AVERAGE(A2:A41)</f>
         <v>0.4</v>
@@ -5068,7 +6422,7 @@
         <v>71.724999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>LOG(A43)</f>
         <v>-0.3979400086720376</v>
